--- a/seeders/estudents.xlsx
+++ b/seeders/estudents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos_Nick\Python\notas_jhon\backendSistNotas\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lloyd\Desktop\sistema notas\backendSistNotas\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679AA34B-9046-4A04-ABC8-7027ADA56DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FC5EDA-B66A-4678-A81A-0F01AD507020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA174506-A699-4D84-A640-D2CA387D3983}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BA174506-A699-4D84-A640-D2CA387D3983}"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2739,18 +2736,12 @@
     <t>ciclo</t>
   </si>
   <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
     <t>+51 933609735</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>pedroantoni355@gmail.com</t>
   </si>
   <si>
@@ -2836,6 +2827,12 @@
   </si>
   <si>
     <t>genessisvale@gmail.com</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -2979,7 +2976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3051,19 +3048,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3902,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A84BA07-B459-4BBE-9764-098660BB8231}">
   <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3991,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>441</v>
@@ -4035,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>444</v>
@@ -4079,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>447</v>
@@ -4123,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>450</v>
@@ -4167,7 +4158,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>453</v>
@@ -4201,8 +4192,8 @@
       <c r="B8" s="4">
         <v>61265730</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>905</v>
+      <c r="C8" s="5" t="s">
+        <v>903</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -4211,7 +4202,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>456</v>
@@ -4245,8 +4236,8 @@
       <c r="B9" s="4">
         <v>61345514</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>906</v>
+      <c r="C9" s="5" t="s">
+        <v>904</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
@@ -4255,7 +4246,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>459</v>
@@ -4299,7 +4290,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>462</v>
@@ -4343,7 +4334,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>465</v>
@@ -4377,8 +4368,8 @@
       <c r="B12" s="4">
         <v>61133552</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>907</v>
+      <c r="C12" s="27" t="s">
+        <v>905</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4387,7 +4378,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>468</v>
@@ -4431,7 +4422,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>471</v>
@@ -4475,7 +4466,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>474</v>
@@ -4519,7 +4510,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>477</v>
@@ -4553,8 +4544,8 @@
       <c r="B16" s="4">
         <v>76029422</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>908</v>
+      <c r="C16" s="27" t="s">
+        <v>906</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -4563,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>480</v>
@@ -4607,7 +4598,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>483</v>
@@ -4651,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>486</v>
@@ -4695,7 +4686,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>489</v>
@@ -4739,7 +4730,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>492</v>
@@ -4783,7 +4774,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>495</v>
@@ -4827,7 +4818,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>498</v>
@@ -4871,7 +4862,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>501</v>
@@ -4915,7 +4906,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>504</v>
@@ -4959,7 +4950,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>507</v>
@@ -5003,7 +4994,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>510</v>
@@ -5047,7 +5038,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>513</v>
@@ -5091,7 +5082,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>516</v>
@@ -5135,7 +5126,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>519</v>
@@ -5179,7 +5170,7 @@
         <v>68</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>522</v>
@@ -5223,7 +5214,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>525</v>
@@ -5267,7 +5258,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>528</v>
@@ -5301,7 +5292,7 @@
       <c r="B33" s="4">
         <v>61077171</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="5" t="s">
         <v>332</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5311,7 +5302,7 @@
         <v>74</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>531</v>
@@ -5355,7 +5346,7 @@
         <v>76</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>534</v>
@@ -5389,7 +5380,7 @@
       <c r="B35" s="4">
         <v>77433387</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5399,7 +5390,7 @@
         <v>78</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>537</v>
@@ -5443,7 +5434,7 @@
         <v>80</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>540</v>
@@ -5487,7 +5478,7 @@
         <v>82</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>543</v>
@@ -5531,7 +5522,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>546</v>
@@ -5575,7 +5566,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>549</v>
@@ -5619,7 +5610,7 @@
         <v>88</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>552</v>
@@ -5663,7 +5654,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>555</v>
@@ -5707,7 +5698,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>558</v>
@@ -5751,7 +5742,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>561</v>
@@ -5795,7 +5786,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>564</v>
@@ -5839,7 +5830,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>567</v>
@@ -5883,7 +5874,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>570</v>
@@ -5927,7 +5918,7 @@
         <v>102</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>573</v>
@@ -5971,7 +5962,7 @@
         <v>104</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>576</v>
@@ -6015,7 +6006,7 @@
         <v>106</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>579</v>
@@ -6059,7 +6050,7 @@
         <v>108</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>582</v>
@@ -6093,8 +6084,8 @@
       <c r="B51" s="4">
         <v>81054253</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>929</v>
+      <c r="C51" s="27" t="s">
+        <v>927</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>109</v>
@@ -6103,7 +6094,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>585</v>
@@ -6147,7 +6138,7 @@
         <v>112</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>588</v>
@@ -6191,7 +6182,7 @@
         <v>114</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>591</v>
@@ -6225,8 +6216,8 @@
       <c r="B54" s="4">
         <v>63031049</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>909</v>
+      <c r="C54" s="27" t="s">
+        <v>907</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>115</v>
@@ -6235,7 +6226,7 @@
         <v>116</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>594</v>
@@ -6269,8 +6260,8 @@
       <c r="B55" s="4">
         <v>60375503</v>
       </c>
-      <c r="C55" s="29" t="s">
-        <v>910</v>
+      <c r="C55" s="27" t="s">
+        <v>908</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>117</v>
@@ -6279,7 +6270,7 @@
         <v>118</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>597</v>
@@ -6323,7 +6314,7 @@
         <v>120</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>600</v>
@@ -6357,8 +6348,8 @@
       <c r="B57" s="4">
         <v>61266688</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>911</v>
+      <c r="C57" s="27" t="s">
+        <v>909</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>121</v>
@@ -6367,7 +6358,7 @@
         <v>122</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>603</v>
@@ -6401,8 +6392,8 @@
       <c r="B58" s="4">
         <v>60232852</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>912</v>
+      <c r="C58" s="27" t="s">
+        <v>910</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>123</v>
@@ -6411,7 +6402,7 @@
         <v>124</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>606</v>
@@ -6455,7 +6446,7 @@
         <v>126</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>609</v>
@@ -6499,7 +6490,7 @@
         <v>128</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>612</v>
@@ -6534,7 +6525,7 @@
         <v>61343470</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>129</v>
@@ -6543,7 +6534,7 @@
         <v>130</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>615</v>
@@ -6577,8 +6568,8 @@
       <c r="B62" s="4">
         <v>61201873</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>914</v>
+      <c r="C62" s="27" t="s">
+        <v>912</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>131</v>
@@ -6587,7 +6578,7 @@
         <v>132</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>618</v>
@@ -6631,7 +6622,7 @@
         <v>134</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>621</v>
@@ -6665,8 +6656,8 @@
       <c r="B64" s="4">
         <v>61040480</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>930</v>
+      <c r="C64" s="27" t="s">
+        <v>928</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>135</v>
@@ -6675,7 +6666,7 @@
         <v>136</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>624</v>
@@ -6719,7 +6710,7 @@
         <v>138</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>627</v>
@@ -6763,7 +6754,7 @@
         <v>140</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>630</v>
@@ -6797,8 +6788,8 @@
       <c r="B67" s="4">
         <v>61077288</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>915</v>
+      <c r="C67" s="27" t="s">
+        <v>913</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>141</v>
@@ -6807,7 +6798,7 @@
         <v>142</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>633</v>
@@ -6841,8 +6832,8 @@
       <c r="B68" s="4">
         <v>75812287</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>916</v>
+      <c r="C68" s="27" t="s">
+        <v>914</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>143</v>
@@ -6851,7 +6842,7 @@
         <v>144</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>636</v>
@@ -6895,7 +6886,7 @@
         <v>146</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>639</v>
@@ -6929,8 +6920,8 @@
       <c r="B70" s="4">
         <v>47706884</v>
       </c>
-      <c r="C70" s="29" t="s">
-        <v>931</v>
+      <c r="C70" s="27" t="s">
+        <v>929</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>147</v>
@@ -6939,7 +6930,7 @@
         <v>148</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>642</v>
@@ -6983,7 +6974,7 @@
         <v>150</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>645</v>
@@ -7027,7 +7018,7 @@
         <v>152</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>648</v>
@@ -7061,8 +7052,8 @@
       <c r="B73" s="4">
         <v>60738068</v>
       </c>
-      <c r="C73" s="29" t="s">
-        <v>917</v>
+      <c r="C73" s="27" t="s">
+        <v>915</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>153</v>
@@ -7071,7 +7062,7 @@
         <v>154</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>651</v>
@@ -7105,8 +7096,8 @@
       <c r="B74" s="4">
         <v>60012311</v>
       </c>
-      <c r="C74" s="29" t="s">
-        <v>918</v>
+      <c r="C74" s="27" t="s">
+        <v>916</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>155</v>
@@ -7115,7 +7106,7 @@
         <v>156</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>654</v>
@@ -7159,7 +7150,7 @@
         <v>158</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>657</v>
@@ -7203,7 +7194,7 @@
         <v>160</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>660</v>
@@ -7247,7 +7238,7 @@
         <v>162</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>663</v>
@@ -7281,8 +7272,8 @@
       <c r="B78" s="4">
         <v>60885476</v>
       </c>
-      <c r="C78" s="29" t="s">
-        <v>932</v>
+      <c r="C78" s="27" t="s">
+        <v>930</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>163</v>
@@ -7291,7 +7282,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>666</v>
@@ -7325,7 +7316,7 @@
       <c r="B79" s="4">
         <v>76837447</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -7335,7 +7326,7 @@
         <v>166</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>669</v>
@@ -7369,8 +7360,8 @@
       <c r="B80" s="4">
         <v>60114607</v>
       </c>
-      <c r="C80" s="29" t="s">
-        <v>919</v>
+      <c r="C80" s="27" t="s">
+        <v>917</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>167</v>
@@ -7379,7 +7370,7 @@
         <v>168</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>672</v>
@@ -7413,8 +7404,8 @@
       <c r="B81" s="4">
         <v>61242952</v>
       </c>
-      <c r="C81" s="29" t="s">
-        <v>920</v>
+      <c r="C81" s="27" t="s">
+        <v>918</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>169</v>
@@ -7423,7 +7414,7 @@
         <v>170</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>675</v>
@@ -7467,7 +7458,7 @@
         <v>172</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>678</v>
@@ -7511,7 +7502,7 @@
         <v>173</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>681</v>
@@ -7555,7 +7546,7 @@
         <v>175</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>684</v>
@@ -7599,7 +7590,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>687</v>
@@ -7643,7 +7634,7 @@
         <v>179</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>690</v>
@@ -7687,7 +7678,7 @@
         <v>181</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>693</v>
@@ -7721,8 +7712,8 @@
       <c r="B88" s="4">
         <v>63693526</v>
       </c>
-      <c r="C88" s="29" t="s">
-        <v>921</v>
+      <c r="C88" s="27" t="s">
+        <v>919</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>182</v>
@@ -7731,7 +7722,7 @@
         <v>183</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>696</v>
@@ -7765,8 +7756,8 @@
       <c r="B89" s="4">
         <v>63283446</v>
       </c>
-      <c r="C89" s="29" t="s">
-        <v>922</v>
+      <c r="C89" s="27" t="s">
+        <v>920</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>184</v>
@@ -7775,7 +7766,7 @@
         <v>185</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>699</v>
@@ -7819,7 +7810,7 @@
         <v>187</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>702</v>
@@ -7853,8 +7844,8 @@
       <c r="B91" s="4">
         <v>61202096</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>923</v>
+      <c r="C91" s="27" t="s">
+        <v>921</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>188</v>
@@ -7863,7 +7854,7 @@
         <v>189</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>705</v>
@@ -7907,7 +7898,7 @@
         <v>191</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>708</v>
@@ -7951,7 +7942,7 @@
         <v>193</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>711</v>
@@ -7995,7 +7986,7 @@
         <v>195</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>714</v>
@@ -8039,7 +8030,7 @@
         <v>197</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>717</v>
@@ -8083,7 +8074,7 @@
         <v>199</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>720</v>
@@ -8117,8 +8108,8 @@
       <c r="B97" s="4">
         <v>61005932</v>
       </c>
-      <c r="C97" s="29" t="s">
-        <v>904</v>
+      <c r="C97" s="27" t="s">
+        <v>902</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>200</v>
@@ -8127,7 +8118,7 @@
         <v>201</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>723</v>
@@ -8161,8 +8152,8 @@
       <c r="B98" s="4">
         <v>77120167</v>
       </c>
-      <c r="C98" s="29" t="s">
-        <v>924</v>
+      <c r="C98" s="27" t="s">
+        <v>922</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>202</v>
@@ -8171,7 +8162,7 @@
         <v>203</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>726</v>
@@ -8205,8 +8196,8 @@
       <c r="B99" s="4">
         <v>76105004</v>
       </c>
-      <c r="C99" s="29" t="s">
-        <v>925</v>
+      <c r="C99" s="27" t="s">
+        <v>923</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>204</v>
@@ -8215,7 +8206,7 @@
         <v>205</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>729</v>
@@ -8259,7 +8250,7 @@
         <v>207</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>732</v>
@@ -8293,7 +8284,7 @@
       <c r="B101" s="4">
         <v>61039983</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="5" t="s">
         <v>379</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -8303,7 +8294,7 @@
         <v>209</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>735</v>
@@ -8337,7 +8328,7 @@
       <c r="B102" s="4">
         <v>43686347</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="5" t="s">
         <v>380</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -8347,7 +8338,7 @@
         <v>211</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>738</v>
@@ -8381,7 +8372,7 @@
       <c r="B103" s="4">
         <v>77648746</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="5" t="s">
         <v>381</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -8391,7 +8382,7 @@
         <v>212</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>741</v>
@@ -8435,7 +8426,7 @@
         <v>214</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>744</v>
@@ -8469,7 +8460,7 @@
       <c r="B105" s="4">
         <v>60963473</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="5" t="s">
         <v>383</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -8479,7 +8470,7 @@
         <v>216</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>747</v>
@@ -8513,8 +8504,8 @@
       <c r="B106" s="4">
         <v>73897884</v>
       </c>
-      <c r="C106" s="29" t="s">
-        <v>926</v>
+      <c r="C106" s="27" t="s">
+        <v>924</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>217</v>
@@ -8523,7 +8514,7 @@
         <v>218</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>750</v>
@@ -8557,7 +8548,7 @@
       <c r="B107" s="4">
         <v>74861005</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="5" t="s">
         <v>384</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -8567,7 +8558,7 @@
         <v>220</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>753</v>
@@ -8601,8 +8592,8 @@
       <c r="B108" s="4">
         <v>76803746</v>
       </c>
-      <c r="C108" s="29" t="s">
-        <v>928</v>
+      <c r="C108" s="27" t="s">
+        <v>926</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>221</v>
@@ -8611,7 +8602,7 @@
         <v>222</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>756</v>
@@ -8645,8 +8636,8 @@
       <c r="B109" s="4">
         <v>75990313</v>
       </c>
-      <c r="C109" s="29" t="s">
-        <v>927</v>
+      <c r="C109" s="27" t="s">
+        <v>925</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>223</v>
@@ -8655,7 +8646,7 @@
         <v>224</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>759</v>
@@ -8699,7 +8690,7 @@
         <v>226</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>762</v>
@@ -8733,7 +8724,7 @@
       <c r="B111" s="4">
         <v>61077615</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="5" t="s">
         <v>385</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -8743,7 +8734,7 @@
         <v>228</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>765</v>
@@ -8777,7 +8768,7 @@
       <c r="B112" s="4">
         <v>61006046</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="5" t="s">
         <v>386</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -8787,7 +8778,7 @@
         <v>230</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G112" s="12" t="s">
         <v>768</v>
@@ -8821,7 +8812,7 @@
       <c r="B113" s="4">
         <v>76779608</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="5" t="s">
         <v>387</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -8831,7 +8822,7 @@
         <v>232</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>771</v>
@@ -8865,7 +8856,7 @@
       <c r="B114" s="4">
         <v>75273160</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="5" t="s">
         <v>388</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -8875,7 +8866,7 @@
         <v>234</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>774</v>
@@ -8909,7 +8900,7 @@
       <c r="B115" s="4">
         <v>47359082</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="5" t="s">
         <v>389</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -8919,7 +8910,7 @@
         <v>236</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>777</v>
@@ -8953,7 +8944,7 @@
       <c r="B116" s="4">
         <v>75423275</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="5" t="s">
         <v>390</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -8963,7 +8954,7 @@
         <v>238</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>780</v>
@@ -9007,7 +8998,7 @@
         <v>240</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>783</v>
@@ -9041,7 +9032,7 @@
       <c r="B118" s="4">
         <v>75766147</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -9051,7 +9042,7 @@
         <v>241</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>786</v>
@@ -9085,7 +9076,7 @@
       <c r="B119" s="4">
         <v>77698560</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="5" t="s">
         <v>393</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -9095,7 +9086,7 @@
         <v>243</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>789</v>
@@ -9129,7 +9120,7 @@
       <c r="B120" s="4">
         <v>61133509</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="5" t="s">
         <v>394</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -9139,7 +9130,7 @@
         <v>245</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>792</v>
@@ -9183,7 +9174,7 @@
         <v>247</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>795</v>
@@ -9217,7 +9208,7 @@
       <c r="B122" s="4">
         <v>72720844</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="5" t="s">
         <v>396</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -9227,7 +9218,7 @@
         <v>249</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>798</v>
@@ -9261,7 +9252,7 @@
       <c r="B123" s="4">
         <v>74624805</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -9271,7 +9262,7 @@
         <v>251</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>801</v>
@@ -9305,7 +9296,7 @@
       <c r="B124" s="4">
         <v>60996693</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="5" t="s">
         <v>398</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -9315,7 +9306,7 @@
         <v>253</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>804</v>
@@ -9349,7 +9340,7 @@
       <c r="B125" s="4">
         <v>76233162</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="5" t="s">
         <v>399</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -9359,7 +9350,7 @@
         <v>255</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>807</v>
@@ -9403,7 +9394,7 @@
         <v>257</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>810</v>
@@ -9447,7 +9438,7 @@
         <v>259</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>813</v>
@@ -9491,7 +9482,7 @@
         <v>261</v>
       </c>
       <c r="F128" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>816</v>
@@ -9535,7 +9526,7 @@
         <v>263</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>819</v>
@@ -9579,7 +9570,7 @@
         <v>265</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>822</v>
@@ -9623,7 +9614,7 @@
         <v>267</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>825</v>
@@ -9667,7 +9658,7 @@
         <v>269</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>828</v>
@@ -9711,7 +9702,7 @@
         <v>271</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>831</v>
@@ -9755,7 +9746,7 @@
         <v>273</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>834</v>
@@ -9799,7 +9790,7 @@
         <v>275</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>837</v>
@@ -9843,7 +9834,7 @@
         <v>277</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>840</v>
@@ -9887,7 +9878,7 @@
         <v>279</v>
       </c>
       <c r="F137" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>843</v>
@@ -9931,10 +9922,10 @@
         <v>281</v>
       </c>
       <c r="F138" s="23" t="s">
+        <v>900</v>
+      </c>
+      <c r="G138" s="12" t="s">
         <v>901</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>902</v>
       </c>
       <c r="H138" s="9">
         <v>34952</v>
@@ -9975,7 +9966,7 @@
         <v>283</v>
       </c>
       <c r="F139" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>849</v>
@@ -10019,7 +10010,7 @@
         <v>285</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>852</v>
@@ -10063,7 +10054,7 @@
         <v>287</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>855</v>
@@ -10107,7 +10098,7 @@
         <v>289</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>858</v>
@@ -10151,7 +10142,7 @@
         <v>291</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>861</v>
@@ -10195,7 +10186,7 @@
         <v>293</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>864</v>
@@ -10239,7 +10230,7 @@
         <v>295</v>
       </c>
       <c r="F145" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>867</v>
@@ -10283,7 +10274,7 @@
         <v>297</v>
       </c>
       <c r="F146" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>870</v>
@@ -10327,7 +10318,7 @@
         <v>299</v>
       </c>
       <c r="F147" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>873</v>
@@ -10371,7 +10362,7 @@
         <v>301</v>
       </c>
       <c r="F148" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>876</v>
@@ -10415,7 +10406,7 @@
         <v>303</v>
       </c>
       <c r="F149" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>879</v>
@@ -10459,7 +10450,7 @@
         <v>305</v>
       </c>
       <c r="F150" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>882</v>
@@ -10503,7 +10494,7 @@
         <v>307</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>885</v>
@@ -10547,7 +10538,7 @@
         <v>309</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>888</v>
@@ -10591,7 +10582,7 @@
         <v>311</v>
       </c>
       <c r="F153" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>891</v>
@@ -10635,7 +10626,7 @@
         <v>313</v>
       </c>
       <c r="F154" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>894</v>
@@ -10679,7 +10670,7 @@
         <v>263</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>897</v>

--- a/seeders/estudents.xlsx
+++ b/seeders/estudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos_Nick\Python\notas_jhon\backendSistNotas\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679AA34B-9046-4A04-ABC8-7027ADA56DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04AEC5-E446-43D9-971F-5BFB780123C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA174506-A699-4D84-A640-D2CA387D3983}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="934">
   <si>
     <t>DNI</t>
   </si>
@@ -2836,15 +2836,15 @@
   </si>
   <si>
     <t>genessisvale@gmail.com</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2979,7 +2979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3044,9 +3044,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3064,6 +3061,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3900,20 +3903,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A84BA07-B459-4BBE-9764-098660BB8231}">
-  <dimension ref="A1:O155"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E157" sqref="E157"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="7"/>
     <col min="2" max="2" width="11.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.28515625" style="7" bestFit="1" customWidth="1"/>
@@ -3936,7 +3939,7 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -3981,7 +3984,7 @@
       <c r="B3" s="4">
         <v>60832237</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -3990,7 +3993,7 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -4014,8 +4017,8 @@
       <c r="M3" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N3" s="22">
-        <v>45024</v>
+      <c r="N3" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,7 +4028,7 @@
       <c r="B4" s="4">
         <v>61133948</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4034,7 +4037,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G4" s="12" t="s">
@@ -4058,8 +4061,8 @@
       <c r="M4" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N4" s="22">
-        <v>45024</v>
+      <c r="N4" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,7 +4072,7 @@
       <c r="B5" s="4">
         <v>77415003</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4078,7 +4081,7 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -4102,8 +4105,8 @@
       <c r="M5" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N5" s="22">
-        <v>45390</v>
+      <c r="N5" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4113,7 +4116,7 @@
       <c r="B6" s="4">
         <v>73546984</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4122,7 +4125,7 @@
       <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -4146,8 +4149,8 @@
       <c r="M6" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N6" s="22">
-        <v>45390</v>
+      <c r="N6" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,7 +4160,7 @@
       <c r="B7" s="4">
         <v>46282097</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -4166,7 +4169,7 @@
       <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -4190,8 +4193,8 @@
       <c r="M7" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N7" s="22">
-        <v>45755</v>
+      <c r="N7" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4204,7 @@
       <c r="B8" s="4">
         <v>61265730</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>905</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -4210,7 +4213,7 @@
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -4234,8 +4237,8 @@
       <c r="M8" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N8" s="22">
-        <v>44659</v>
+      <c r="N8" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4245,7 +4248,7 @@
       <c r="B9" s="4">
         <v>61345514</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>906</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4254,7 +4257,7 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -4278,8 +4281,8 @@
       <c r="M9" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N9" s="22">
-        <v>45024</v>
+      <c r="N9" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4289,7 +4292,7 @@
       <c r="B10" s="4">
         <v>60831738</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -4298,7 +4301,7 @@
       <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -4322,8 +4325,8 @@
       <c r="M10" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N10" s="22">
-        <v>44659</v>
+      <c r="N10" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4333,7 +4336,7 @@
       <c r="B11" s="4">
         <v>74191818</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -4342,7 +4345,7 @@
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -4366,8 +4369,8 @@
       <c r="M11" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N11" s="22">
-        <v>44659</v>
+      <c r="N11" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,7 +4380,7 @@
       <c r="B12" s="4">
         <v>61133552</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>907</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4386,7 +4389,7 @@
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -4410,8 +4413,8 @@
       <c r="M12" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N12" s="22">
-        <v>44659</v>
+      <c r="N12" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4421,7 +4424,7 @@
       <c r="B13" s="4">
         <v>72495392</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4430,7 +4433,7 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -4454,8 +4457,8 @@
       <c r="M13" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N13" s="22">
-        <v>45755</v>
+      <c r="N13" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4465,7 +4468,7 @@
       <c r="B14" s="4">
         <v>61122710</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>314</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4474,7 +4477,7 @@
       <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -4498,8 +4501,8 @@
       <c r="M14" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N14" s="22">
-        <v>45755</v>
+      <c r="N14" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4509,7 +4512,7 @@
       <c r="B15" s="4">
         <v>78028272</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>315</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4518,7 +4521,7 @@
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -4542,8 +4545,8 @@
       <c r="M15" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N15" s="22">
-        <v>45024</v>
+      <c r="N15" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4553,7 +4556,7 @@
       <c r="B16" s="4">
         <v>76029422</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>908</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -4562,7 +4565,7 @@
       <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -4586,8 +4589,8 @@
       <c r="M16" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N16" s="22">
-        <v>45390</v>
+      <c r="N16" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4597,7 +4600,7 @@
       <c r="B17" s="4">
         <v>76823706</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>316</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4606,7 +4609,7 @@
       <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -4630,8 +4633,8 @@
       <c r="M17" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N17" s="22">
-        <v>45024</v>
+      <c r="N17" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,7 +4644,7 @@
       <c r="B18" s="4">
         <v>63415624</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>317</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -4650,7 +4653,7 @@
       <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -4674,8 +4677,8 @@
       <c r="M18" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N18" s="22">
-        <v>45755</v>
+      <c r="N18" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4688,7 @@
       <c r="B19" s="4">
         <v>63123442</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>318</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4694,7 +4697,7 @@
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -4718,8 +4721,8 @@
       <c r="M19" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N19" s="22">
-        <v>45024</v>
+      <c r="N19" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4729,7 +4732,7 @@
       <c r="B20" s="4">
         <v>61344131</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="26" t="s">
         <v>319</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -4738,7 +4741,7 @@
       <c r="E20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -4762,8 +4765,8 @@
       <c r="M20" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N20" s="22">
-        <v>45755</v>
+      <c r="N20" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4776,7 @@
       <c r="B21" s="4">
         <v>61122419</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>320</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -4782,7 +4785,7 @@
       <c r="E21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -4806,8 +4809,8 @@
       <c r="M21" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N21" s="22">
-        <v>45755</v>
+      <c r="N21" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4817,7 +4820,7 @@
       <c r="B22" s="4">
         <v>61245580</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>321</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -4826,7 +4829,7 @@
       <c r="E22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G22" s="12" t="s">
@@ -4850,8 +4853,8 @@
       <c r="M22" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N22" s="22">
-        <v>45755</v>
+      <c r="N22" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,7 +4864,7 @@
       <c r="B23" s="4">
         <v>61201824</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>322</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -4870,7 +4873,7 @@
       <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -4894,8 +4897,8 @@
       <c r="M23" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N23" s="22">
-        <v>45024</v>
+      <c r="N23" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,7 +4908,7 @@
       <c r="B24" s="4">
         <v>71238372</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>323</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -4914,7 +4917,7 @@
       <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G24" s="12" t="s">
@@ -4938,8 +4941,8 @@
       <c r="M24" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N24" s="22">
-        <v>44659</v>
+      <c r="N24" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4949,7 +4952,7 @@
       <c r="B25" s="4">
         <v>72122196</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>324</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -4958,7 +4961,7 @@
       <c r="E25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -4982,8 +4985,8 @@
       <c r="M25" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N25" s="22">
-        <v>44659</v>
+      <c r="N25" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4993,7 +4996,7 @@
       <c r="B26" s="4">
         <v>72774984</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>325</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -5002,7 +5005,7 @@
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -5026,8 +5029,8 @@
       <c r="M26" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N26" s="22">
-        <v>45755</v>
+      <c r="N26" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5037,7 +5040,7 @@
       <c r="B27" s="4">
         <v>61091944</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>326</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -5046,7 +5049,7 @@
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -5070,8 +5073,8 @@
       <c r="M27" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N27" s="22">
-        <v>45024</v>
+      <c r="N27" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5081,7 +5084,7 @@
       <c r="B28" s="4">
         <v>70710170</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>327</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -5090,7 +5093,7 @@
       <c r="E28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -5114,8 +5117,8 @@
       <c r="M28" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N28" s="22">
-        <v>45755</v>
+      <c r="N28" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5125,7 +5128,7 @@
       <c r="B29" s="4">
         <v>47960928</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>328</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -5134,7 +5137,7 @@
       <c r="E29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -5158,8 +5161,8 @@
       <c r="M29" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N29" s="22">
-        <v>45755</v>
+      <c r="N29" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,7 +5172,7 @@
       <c r="B30" s="4">
         <v>61006146</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>329</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5178,7 +5181,7 @@
       <c r="E30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -5202,8 +5205,8 @@
       <c r="M30" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N30" s="22">
-        <v>45024</v>
+      <c r="N30" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,7 +5216,7 @@
       <c r="B31" s="4">
         <v>61088684</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="26" t="s">
         <v>330</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5222,7 +5225,7 @@
       <c r="E31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -5246,8 +5249,8 @@
       <c r="M31" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N31" s="22">
-        <v>45390</v>
+      <c r="N31" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5257,7 +5260,7 @@
       <c r="B32" s="4">
         <v>61237674</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>331</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5266,7 +5269,7 @@
       <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -5290,8 +5293,8 @@
       <c r="M32" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N32" s="22">
-        <v>44659</v>
+      <c r="N32" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5301,7 +5304,7 @@
       <c r="B33" s="4">
         <v>61077171</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>332</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5310,7 +5313,7 @@
       <c r="E33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="F33" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -5334,8 +5337,8 @@
       <c r="M33" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N33" s="22">
-        <v>45024</v>
+      <c r="N33" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5345,7 +5348,7 @@
       <c r="B34" s="4">
         <v>87498567</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>333</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -5354,7 +5357,7 @@
       <c r="E34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -5378,8 +5381,8 @@
       <c r="M34" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N34" s="22">
-        <v>44659</v>
+      <c r="N34" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5389,7 +5392,7 @@
       <c r="B35" s="4">
         <v>77433387</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>334</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5398,7 +5401,7 @@
       <c r="E35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -5422,8 +5425,8 @@
       <c r="M35" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N35" s="22">
-        <v>45755</v>
+      <c r="N35" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5433,7 +5436,7 @@
       <c r="B36" s="4">
         <v>61061054</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="26" t="s">
         <v>335</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -5442,7 +5445,7 @@
       <c r="E36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -5466,8 +5469,8 @@
       <c r="M36" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N36" s="22">
-        <v>45755</v>
+      <c r="N36" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5477,7 +5480,7 @@
       <c r="B37" s="4">
         <v>74799549</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="26" t="s">
         <v>336</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -5486,7 +5489,7 @@
       <c r="E37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -5510,8 +5513,8 @@
       <c r="M37" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N37" s="22">
-        <v>45024</v>
+      <c r="N37" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5521,7 +5524,7 @@
       <c r="B38" s="4">
         <v>60818621</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>337</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -5530,7 +5533,7 @@
       <c r="E38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -5554,8 +5557,8 @@
       <c r="M38" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N38" s="22">
-        <v>44659</v>
+      <c r="N38" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5568,7 @@
       <c r="B39" s="4">
         <v>73181482</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>338</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -5574,7 +5577,7 @@
       <c r="E39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G39" s="12" t="s">
@@ -5598,8 +5601,8 @@
       <c r="M39" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N39" s="22">
-        <v>45024</v>
+      <c r="N39" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,7 +5612,7 @@
       <c r="B40" s="4">
         <v>61133766</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>339</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -5618,7 +5621,7 @@
       <c r="E40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G40" s="12" t="s">
@@ -5642,8 +5645,8 @@
       <c r="M40" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N40" s="22">
-        <v>45390</v>
+      <c r="N40" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,7 +5656,7 @@
       <c r="B41" s="4">
         <v>75795006</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="26" t="s">
         <v>340</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -5662,7 +5665,7 @@
       <c r="E41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -5686,8 +5689,8 @@
       <c r="M41" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N41" s="22">
-        <v>44659</v>
+      <c r="N41" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5697,7 +5700,7 @@
       <c r="B42" s="4">
         <v>60014134</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>341</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -5706,7 +5709,7 @@
       <c r="E42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G42" s="12" t="s">
@@ -5730,8 +5733,8 @@
       <c r="M42" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N42" s="22">
-        <v>45390</v>
+      <c r="N42" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5741,7 +5744,7 @@
       <c r="B43" s="4">
         <v>75091167</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
         <v>342</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -5750,7 +5753,7 @@
       <c r="E43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F43" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G43" s="12" t="s">
@@ -5774,8 +5777,8 @@
       <c r="M43" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N43" s="22">
-        <v>44659</v>
+      <c r="N43" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5785,7 +5788,7 @@
       <c r="B44" s="4">
         <v>62431273</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="26" t="s">
         <v>343</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -5794,7 +5797,7 @@
       <c r="E44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="F44" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -5818,8 +5821,8 @@
       <c r="M44" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N44" s="22">
-        <v>44659</v>
+      <c r="N44" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5829,7 +5832,7 @@
       <c r="B45" s="4">
         <v>70773913</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="26" t="s">
         <v>344</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -5838,7 +5841,7 @@
       <c r="E45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -5862,8 +5865,8 @@
       <c r="M45" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N45" s="22">
-        <v>45755</v>
+      <c r="N45" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,7 +5876,7 @@
       <c r="B46" s="4">
         <v>74370827</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="26" t="s">
         <v>345</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -5882,7 +5885,7 @@
       <c r="E46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -5906,8 +5909,8 @@
       <c r="M46" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N46" s="22">
-        <v>45024</v>
+      <c r="N46" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5917,7 +5920,7 @@
       <c r="B47" s="4">
         <v>80902538</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>346</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -5926,7 +5929,7 @@
       <c r="E47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -5950,8 +5953,8 @@
       <c r="M47" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N47" s="22">
-        <v>44659</v>
+      <c r="N47" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5961,7 +5964,7 @@
       <c r="B48" s="4">
         <v>81491222</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="26" t="s">
         <v>347</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -5970,7 +5973,7 @@
       <c r="E48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G48" s="12" t="s">
@@ -5994,8 +5997,8 @@
       <c r="M48" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N48" s="22">
-        <v>44659</v>
+      <c r="N48" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6005,7 +6008,7 @@
       <c r="B49" s="4">
         <v>60855293</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="26" t="s">
         <v>348</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6014,7 +6017,7 @@
       <c r="E49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G49" s="12" t="s">
@@ -6038,8 +6041,8 @@
       <c r="M49" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N49" s="22">
-        <v>45024</v>
+      <c r="N49" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6049,7 +6052,7 @@
       <c r="B50" s="4">
         <v>71435215</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="26" t="s">
         <v>349</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -6058,7 +6061,7 @@
       <c r="E50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="F50" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -6082,8 +6085,8 @@
       <c r="M50" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N50" s="22">
-        <v>45390</v>
+      <c r="N50" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,7 +6096,7 @@
       <c r="B51" s="4">
         <v>81054253</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>929</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -6102,7 +6105,7 @@
       <c r="E51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G51" s="12" t="s">
@@ -6126,8 +6129,8 @@
       <c r="M51" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="22">
-        <v>45755</v>
+      <c r="N51" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6140,7 @@
       <c r="B52" s="4">
         <v>61286219</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="26" t="s">
         <v>350</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6146,7 +6149,7 @@
       <c r="E52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="F52" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G52" s="12" t="s">
@@ -6170,8 +6173,8 @@
       <c r="M52" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N52" s="22">
-        <v>44659</v>
+      <c r="N52" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,7 +6184,7 @@
       <c r="B53" s="4">
         <v>62969451</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>351</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6190,7 +6193,7 @@
       <c r="E53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G53" s="12" t="s">
@@ -6214,8 +6217,8 @@
       <c r="M53" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N53" s="22">
-        <v>44659</v>
+      <c r="N53" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,7 +6228,7 @@
       <c r="B54" s="4">
         <v>63031049</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="28" t="s">
         <v>909</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -6234,7 +6237,7 @@
       <c r="E54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G54" s="12" t="s">
@@ -6258,8 +6261,8 @@
       <c r="M54" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N54" s="22">
-        <v>45390</v>
+      <c r="N54" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6269,7 +6272,7 @@
       <c r="B55" s="4">
         <v>60375503</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="28" t="s">
         <v>910</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -6278,7 +6281,7 @@
       <c r="E55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G55" s="12" t="s">
@@ -6302,8 +6305,8 @@
       <c r="M55" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N55" s="22">
-        <v>45755</v>
+      <c r="N55" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6313,7 +6316,7 @@
       <c r="B56" s="4">
         <v>60755686</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="26" t="s">
         <v>352</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -6322,7 +6325,7 @@
       <c r="E56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G56" s="12" t="s">
@@ -6346,8 +6349,8 @@
       <c r="M56" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N56" s="22">
-        <v>45024</v>
+      <c r="N56" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6357,7 +6360,7 @@
       <c r="B57" s="4">
         <v>61266688</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="C57" s="28" t="s">
         <v>911</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -6366,7 +6369,7 @@
       <c r="E57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="23" t="s">
+      <c r="F57" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G57" s="12" t="s">
@@ -6390,8 +6393,8 @@
       <c r="M57" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N57" s="22">
-        <v>44659</v>
+      <c r="N57" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,7 +6404,7 @@
       <c r="B58" s="4">
         <v>60232852</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="28" t="s">
         <v>912</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -6410,7 +6413,7 @@
       <c r="E58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G58" s="12" t="s">
@@ -6434,8 +6437,8 @@
       <c r="M58" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N58" s="22">
-        <v>44659</v>
+      <c r="N58" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6445,7 +6448,7 @@
       <c r="B59" s="4">
         <v>47024234</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="26" t="s">
         <v>353</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -6454,7 +6457,7 @@
       <c r="E59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G59" s="12" t="s">
@@ -6478,8 +6481,8 @@
       <c r="M59" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N59" s="22">
-        <v>45755</v>
+      <c r="N59" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6489,7 +6492,7 @@
       <c r="B60" s="4">
         <v>73803526</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="26" t="s">
         <v>354</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -6498,7 +6501,7 @@
       <c r="E60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G60" s="12" t="s">
@@ -6522,8 +6525,8 @@
       <c r="M60" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N60" s="22">
-        <v>44659</v>
+      <c r="N60" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6533,7 +6536,7 @@
       <c r="B61" s="4">
         <v>61343470</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="26" t="s">
         <v>913</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -6542,7 +6545,7 @@
       <c r="E61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G61" s="12" t="s">
@@ -6566,8 +6569,8 @@
       <c r="M61" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N61" s="22">
-        <v>45024</v>
+      <c r="N61" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6577,7 +6580,7 @@
       <c r="B62" s="4">
         <v>61201873</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="28" t="s">
         <v>914</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -6586,7 +6589,7 @@
       <c r="E62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F62" s="23" t="s">
+      <c r="F62" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G62" s="12" t="s">
@@ -6610,8 +6613,8 @@
       <c r="M62" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N62" s="22">
-        <v>45390</v>
+      <c r="N62" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6621,7 +6624,7 @@
       <c r="B63" s="4">
         <v>73630690</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="26" t="s">
         <v>355</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -6630,7 +6633,7 @@
       <c r="E63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G63" s="12" t="s">
@@ -6654,8 +6657,8 @@
       <c r="M63" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N63" s="22">
-        <v>45390</v>
+      <c r="N63" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6665,7 +6668,7 @@
       <c r="B64" s="4">
         <v>61040480</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="28" t="s">
         <v>930</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -6674,7 +6677,7 @@
       <c r="E64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F64" s="23" t="s">
+      <c r="F64" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G64" s="12" t="s">
@@ -6698,8 +6701,8 @@
       <c r="M64" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N64" s="22">
-        <v>45390</v>
+      <c r="N64" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,7 +6712,7 @@
       <c r="B65" s="4">
         <v>76866377</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="26" t="s">
         <v>356</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -6718,7 +6721,7 @@
       <c r="E65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="F65" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G65" s="12" t="s">
@@ -6742,8 +6745,8 @@
       <c r="M65" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N65" s="22">
-        <v>44659</v>
+      <c r="N65" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,7 +6756,7 @@
       <c r="B66" s="4">
         <v>60626969</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="26" t="s">
         <v>357</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -6762,7 +6765,7 @@
       <c r="E66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G66" s="12" t="s">
@@ -6786,8 +6789,8 @@
       <c r="M66" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N66" s="22">
-        <v>45755</v>
+      <c r="N66" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6797,7 +6800,7 @@
       <c r="B67" s="4">
         <v>61077288</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="28" t="s">
         <v>915</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -6806,7 +6809,7 @@
       <c r="E67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="23" t="s">
+      <c r="F67" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G67" s="12" t="s">
@@ -6830,8 +6833,8 @@
       <c r="M67" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N67" s="22">
-        <v>45755</v>
+      <c r="N67" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6841,7 +6844,7 @@
       <c r="B68" s="4">
         <v>75812287</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="28" t="s">
         <v>916</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -6850,7 +6853,7 @@
       <c r="E68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F68" s="23" t="s">
+      <c r="F68" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G68" s="12" t="s">
@@ -6874,8 +6877,8 @@
       <c r="M68" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N68" s="22">
-        <v>45390</v>
+      <c r="N68" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6885,7 +6888,7 @@
       <c r="B69" s="4">
         <v>76498613</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="26" t="s">
         <v>358</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -6894,7 +6897,7 @@
       <c r="E69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G69" s="12" t="s">
@@ -6918,8 +6921,8 @@
       <c r="M69" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N69" s="22">
-        <v>44659</v>
+      <c r="N69" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6929,7 +6932,7 @@
       <c r="B70" s="4">
         <v>47706884</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="28" t="s">
         <v>931</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -6938,7 +6941,7 @@
       <c r="E70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F70" s="23" t="s">
+      <c r="F70" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G70" s="12" t="s">
@@ -6962,8 +6965,8 @@
       <c r="M70" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N70" s="22">
-        <v>45024</v>
+      <c r="N70" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,7 +6976,7 @@
       <c r="B71" s="4">
         <v>61006119</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C71" s="26" t="s">
         <v>359</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -6982,7 +6985,7 @@
       <c r="E71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F71" s="23" t="s">
+      <c r="F71" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G71" s="12" t="s">
@@ -7006,8 +7009,8 @@
       <c r="M71" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N71" s="22">
-        <v>44659</v>
+      <c r="N71" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7017,7 +7020,7 @@
       <c r="B72" s="4">
         <v>62034714</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="26" t="s">
         <v>360</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -7026,7 +7029,7 @@
       <c r="E72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G72" s="12" t="s">
@@ -7050,8 +7053,8 @@
       <c r="M72" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N72" s="22">
-        <v>44659</v>
+      <c r="N72" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7061,7 +7064,7 @@
       <c r="B73" s="4">
         <v>60738068</v>
       </c>
-      <c r="C73" s="29" t="s">
+      <c r="C73" s="28" t="s">
         <v>917</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -7070,7 +7073,7 @@
       <c r="E73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F73" s="23" t="s">
+      <c r="F73" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G73" s="12" t="s">
@@ -7094,8 +7097,8 @@
       <c r="M73" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N73" s="22">
-        <v>45024</v>
+      <c r="N73" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7105,7 +7108,7 @@
       <c r="B74" s="4">
         <v>60012311</v>
       </c>
-      <c r="C74" s="29" t="s">
+      <c r="C74" s="28" t="s">
         <v>918</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -7114,7 +7117,7 @@
       <c r="E74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="23" t="s">
+      <c r="F74" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G74" s="12" t="s">
@@ -7138,8 +7141,8 @@
       <c r="M74" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N74" s="22">
-        <v>45390</v>
+      <c r="N74" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7149,7 +7152,7 @@
       <c r="B75" s="4">
         <v>60997000</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="26" t="s">
         <v>361</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -7158,7 +7161,7 @@
       <c r="E75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G75" s="12" t="s">
@@ -7182,8 +7185,8 @@
       <c r="M75" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N75" s="22">
-        <v>45755</v>
+      <c r="N75" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7193,7 +7196,7 @@
       <c r="B76" s="4">
         <v>60110409</v>
       </c>
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="26" t="s">
         <v>362</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -7202,7 +7205,7 @@
       <c r="E76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="23" t="s">
+      <c r="F76" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G76" s="12" t="s">
@@ -7226,8 +7229,8 @@
       <c r="M76" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N76" s="22">
-        <v>45024</v>
+      <c r="N76" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7237,7 +7240,7 @@
       <c r="B77" s="4">
         <v>60855255</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="26" t="s">
         <v>363</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -7246,7 +7249,7 @@
       <c r="E77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F77" s="23" t="s">
+      <c r="F77" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G77" s="12" t="s">
@@ -7270,8 +7273,8 @@
       <c r="M77" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N77" s="22">
-        <v>44659</v>
+      <c r="N77" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7281,7 +7284,7 @@
       <c r="B78" s="4">
         <v>60885476</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="28" t="s">
         <v>932</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -7290,7 +7293,7 @@
       <c r="E78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="F78" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G78" s="12" t="s">
@@ -7314,8 +7317,8 @@
       <c r="M78" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N78" s="22">
-        <v>45755</v>
+      <c r="N78" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7325,7 +7328,7 @@
       <c r="B79" s="4">
         <v>76837447</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="27" t="s">
         <v>364</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -7334,7 +7337,7 @@
       <c r="E79" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G79" s="12" t="s">
@@ -7358,8 +7361,8 @@
       <c r="M79" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N79" s="22">
-        <v>45390</v>
+      <c r="N79" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7369,7 +7372,7 @@
       <c r="B80" s="4">
         <v>60114607</v>
       </c>
-      <c r="C80" s="29" t="s">
+      <c r="C80" s="28" t="s">
         <v>919</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -7378,7 +7381,7 @@
       <c r="E80" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G80" s="12" t="s">
@@ -7402,8 +7405,8 @@
       <c r="M80" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N80" s="22">
-        <v>45390</v>
+      <c r="N80" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7413,7 +7416,7 @@
       <c r="B81" s="4">
         <v>61242952</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="28" t="s">
         <v>920</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -7422,7 +7425,7 @@
       <c r="E81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G81" s="12" t="s">
@@ -7446,8 +7449,8 @@
       <c r="M81" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N81" s="22">
-        <v>45755</v>
+      <c r="N81" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7457,7 +7460,7 @@
       <c r="B82" s="4">
         <v>60996760</v>
       </c>
-      <c r="C82" s="27" t="s">
+      <c r="C82" s="26" t="s">
         <v>365</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -7466,7 +7469,7 @@
       <c r="E82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G82" s="12" t="s">
@@ -7490,8 +7493,8 @@
       <c r="M82" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N82" s="22">
-        <v>45755</v>
+      <c r="N82" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7501,7 +7504,7 @@
       <c r="B83" s="4">
         <v>61122301</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C83" s="26" t="s">
         <v>366</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -7510,7 +7513,7 @@
       <c r="E83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G83" s="12" t="s">
@@ -7534,8 +7537,8 @@
       <c r="M83" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N83" s="22">
-        <v>45755</v>
+      <c r="N83" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7545,7 +7548,7 @@
       <c r="B84" s="4">
         <v>81102122</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>367</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -7554,7 +7557,7 @@
       <c r="E84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F84" s="23" t="s">
+      <c r="F84" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G84" s="12" t="s">
@@ -7578,8 +7581,8 @@
       <c r="M84" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N84" s="22">
-        <v>45024</v>
+      <c r="N84" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7589,7 +7592,7 @@
       <c r="B85" s="4">
         <v>76891264</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="26" t="s">
         <v>368</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -7598,7 +7601,7 @@
       <c r="E85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G85" s="12" t="s">
@@ -7622,8 +7625,8 @@
       <c r="M85" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N85" s="22">
-        <v>44659</v>
+      <c r="N85" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7633,7 +7636,7 @@
       <c r="B86" s="4">
         <v>74851201</v>
       </c>
-      <c r="C86" s="27" t="s">
+      <c r="C86" s="26" t="s">
         <v>369</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -7642,7 +7645,7 @@
       <c r="E86" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F86" s="23" t="s">
+      <c r="F86" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G86" s="12" t="s">
@@ -7666,8 +7669,8 @@
       <c r="M86" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N86" s="22">
-        <v>44659</v>
+      <c r="N86" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7677,7 +7680,7 @@
       <c r="B87" s="4">
         <v>61006481</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="26" t="s">
         <v>370</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -7686,7 +7689,7 @@
       <c r="E87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F87" s="23" t="s">
+      <c r="F87" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G87" s="12" t="s">
@@ -7710,8 +7713,8 @@
       <c r="M87" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N87" s="22">
-        <v>45755</v>
+      <c r="N87" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7721,7 +7724,7 @@
       <c r="B88" s="4">
         <v>63693526</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="28" t="s">
         <v>921</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -7730,7 +7733,7 @@
       <c r="E88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F88" s="23" t="s">
+      <c r="F88" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G88" s="12" t="s">
@@ -7754,8 +7757,8 @@
       <c r="M88" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N88" s="22">
-        <v>45024</v>
+      <c r="N88" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7765,7 +7768,7 @@
       <c r="B89" s="4">
         <v>63283446</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="28" t="s">
         <v>922</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -7774,7 +7777,7 @@
       <c r="E89" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F89" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G89" s="12" t="s">
@@ -7798,8 +7801,8 @@
       <c r="M89" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N89" s="22">
-        <v>44659</v>
+      <c r="N89" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7809,7 +7812,7 @@
       <c r="B90" s="4">
         <v>70967054</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="26" t="s">
         <v>371</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -7818,7 +7821,7 @@
       <c r="E90" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F90" s="23" t="s">
+      <c r="F90" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G90" s="12" t="s">
@@ -7842,8 +7845,8 @@
       <c r="M90" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N90" s="22">
-        <v>45390</v>
+      <c r="N90" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,7 +7856,7 @@
       <c r="B91" s="4">
         <v>61202096</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="28" t="s">
         <v>923</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -7862,7 +7865,7 @@
       <c r="E91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F91" s="23" t="s">
+      <c r="F91" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G91" s="12" t="s">
@@ -7886,8 +7889,8 @@
       <c r="M91" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N91" s="22">
-        <v>45755</v>
+      <c r="N91" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7897,7 +7900,7 @@
       <c r="B92" s="4">
         <v>70246801</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="26" t="s">
         <v>372</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -7906,7 +7909,7 @@
       <c r="E92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="23" t="s">
+      <c r="F92" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G92" s="12" t="s">
@@ -7930,8 +7933,8 @@
       <c r="M92" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N92" s="22">
-        <v>45390</v>
+      <c r="N92" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7941,7 +7944,7 @@
       <c r="B93" s="4">
         <v>61225099</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>373</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -7950,7 +7953,7 @@
       <c r="E93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="F93" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G93" s="12" t="s">
@@ -7974,8 +7977,8 @@
       <c r="M93" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N93" s="22">
-        <v>45755</v>
+      <c r="N93" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7985,7 +7988,7 @@
       <c r="B94" s="4">
         <v>46066489</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="26" t="s">
         <v>374</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -7994,7 +7997,7 @@
       <c r="E94" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F94" s="23" t="s">
+      <c r="F94" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G94" s="12" t="s">
@@ -8018,8 +8021,8 @@
       <c r="M94" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N94" s="22">
-        <v>45024</v>
+      <c r="N94" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,7 +8032,7 @@
       <c r="B95" s="4">
         <v>41654445</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>375</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -8038,7 +8041,7 @@
       <c r="E95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F95" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G95" s="12" t="s">
@@ -8062,8 +8065,8 @@
       <c r="M95" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N95" s="22">
-        <v>45024</v>
+      <c r="N95" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8073,7 +8076,7 @@
       <c r="B96" s="4">
         <v>73908398</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="26" t="s">
         <v>376</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -8082,7 +8085,7 @@
       <c r="E96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F96" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G96" s="12" t="s">
@@ -8106,8 +8109,8 @@
       <c r="M96" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N96" s="22">
-        <v>45024</v>
+      <c r="N96" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8117,7 +8120,7 @@
       <c r="B97" s="4">
         <v>61005932</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="28" t="s">
         <v>904</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -8126,7 +8129,7 @@
       <c r="E97" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G97" s="12" t="s">
@@ -8150,8 +8153,8 @@
       <c r="M97" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N97" s="22">
-        <v>45755</v>
+      <c r="N97" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8161,7 +8164,7 @@
       <c r="B98" s="4">
         <v>77120167</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="28" t="s">
         <v>924</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -8170,7 +8173,7 @@
       <c r="E98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F98" s="23" t="s">
+      <c r="F98" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G98" s="12" t="s">
@@ -8194,8 +8197,8 @@
       <c r="M98" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N98" s="22">
-        <v>45024</v>
+      <c r="N98" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8205,7 +8208,7 @@
       <c r="B99" s="4">
         <v>76105004</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="28" t="s">
         <v>925</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -8214,7 +8217,7 @@
       <c r="E99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F99" s="23" t="s">
+      <c r="F99" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G99" s="12" t="s">
@@ -8238,8 +8241,8 @@
       <c r="M99" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N99" s="22">
-        <v>45390</v>
+      <c r="N99" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8249,7 +8252,7 @@
       <c r="B100" s="4">
         <v>61379403</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="26" t="s">
         <v>378</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -8258,7 +8261,7 @@
       <c r="E100" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="F100" s="22" t="s">
         <v>903</v>
       </c>
       <c r="G100" s="12" t="s">
@@ -8282,8 +8285,8 @@
       <c r="M100" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N100" s="22">
-        <v>45755</v>
+      <c r="N100" s="12">
+        <v>2025</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8293,7 +8296,7 @@
       <c r="B101" s="4">
         <v>61039983</v>
       </c>
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="27" t="s">
         <v>379</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -8326,8 +8329,8 @@
       <c r="M101" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N101" s="22">
-        <v>44659</v>
+      <c r="N101" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8337,7 +8340,7 @@
       <c r="B102" s="4">
         <v>43686347</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="27" t="s">
         <v>380</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -8370,8 +8373,8 @@
       <c r="M102" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N102" s="22">
-        <v>45755</v>
+      <c r="N102" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8381,7 +8384,7 @@
       <c r="B103" s="4">
         <v>77648746</v>
       </c>
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="27" t="s">
         <v>381</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -8414,8 +8417,8 @@
       <c r="M103" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N103" s="22">
-        <v>45024</v>
+      <c r="N103" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8425,7 +8428,7 @@
       <c r="B104" s="4">
         <v>77876500</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="26" t="s">
         <v>382</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -8458,8 +8461,8 @@
       <c r="M104" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N104" s="22">
-        <v>45024</v>
+      <c r="N104" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8469,7 +8472,7 @@
       <c r="B105" s="4">
         <v>60963473</v>
       </c>
-      <c r="C105" s="28" t="s">
+      <c r="C105" s="27" t="s">
         <v>383</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -8502,8 +8505,8 @@
       <c r="M105" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N105" s="22">
-        <v>45024</v>
+      <c r="N105" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8513,7 +8516,7 @@
       <c r="B106" s="4">
         <v>73897884</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="28" t="s">
         <v>926</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -8546,8 +8549,8 @@
       <c r="M106" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N106" s="22">
-        <v>45390</v>
+      <c r="N106" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8557,7 +8560,7 @@
       <c r="B107" s="4">
         <v>74861005</v>
       </c>
-      <c r="C107" s="28" t="s">
+      <c r="C107" s="27" t="s">
         <v>384</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -8590,8 +8593,8 @@
       <c r="M107" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N107" s="22">
-        <v>45390</v>
+      <c r="N107" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8601,7 +8604,7 @@
       <c r="B108" s="4">
         <v>76803746</v>
       </c>
-      <c r="C108" s="29" t="s">
+      <c r="C108" s="28" t="s">
         <v>928</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -8634,8 +8637,8 @@
       <c r="M108" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N108" s="22">
-        <v>45024</v>
+      <c r="N108" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8645,7 +8648,7 @@
       <c r="B109" s="4">
         <v>75990313</v>
       </c>
-      <c r="C109" s="29" t="s">
+      <c r="C109" s="28" t="s">
         <v>927</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -8678,8 +8681,8 @@
       <c r="M109" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N109" s="22">
-        <v>44659</v>
+      <c r="N109" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8689,7 +8692,7 @@
       <c r="B110" s="4">
         <v>76021086</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="26" t="s">
         <v>377</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -8722,8 +8725,8 @@
       <c r="M110" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N110" s="22">
-        <v>44659</v>
+      <c r="N110" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8733,7 +8736,7 @@
       <c r="B111" s="4">
         <v>61077615</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="27" t="s">
         <v>385</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -8766,8 +8769,8 @@
       <c r="M111" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N111" s="22">
-        <v>45755</v>
+      <c r="N111" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8777,7 +8780,7 @@
       <c r="B112" s="4">
         <v>61006046</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="27" t="s">
         <v>386</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -8810,8 +8813,8 @@
       <c r="M112" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N112" s="22">
-        <v>45755</v>
+      <c r="N112" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8821,7 +8824,7 @@
       <c r="B113" s="4">
         <v>76779608</v>
       </c>
-      <c r="C113" s="28" t="s">
+      <c r="C113" s="27" t="s">
         <v>387</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -8854,8 +8857,8 @@
       <c r="M113" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N113" s="22">
-        <v>45024</v>
+      <c r="N113" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8865,7 +8868,7 @@
       <c r="B114" s="4">
         <v>75273160</v>
       </c>
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="27" t="s">
         <v>388</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -8898,8 +8901,8 @@
       <c r="M114" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N114" s="22">
-        <v>44659</v>
+      <c r="N114" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8909,7 +8912,7 @@
       <c r="B115" s="4">
         <v>47359082</v>
       </c>
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="27" t="s">
         <v>389</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -8942,8 +8945,8 @@
       <c r="M115" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N115" s="22">
-        <v>45390</v>
+      <c r="N115" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8953,7 +8956,7 @@
       <c r="B116" s="4">
         <v>75423275</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="27" t="s">
         <v>390</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -8986,8 +8989,8 @@
       <c r="M116" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N116" s="22">
-        <v>45390</v>
+      <c r="N116" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,7 +9000,7 @@
       <c r="B117" s="4">
         <v>62779851</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="26" t="s">
         <v>391</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -9030,8 +9033,8 @@
       <c r="M117" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N117" s="22">
-        <v>44659</v>
+      <c r="N117" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9041,7 +9044,7 @@
       <c r="B118" s="4">
         <v>75766147</v>
       </c>
-      <c r="C118" s="28" t="s">
+      <c r="C118" s="27" t="s">
         <v>392</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -9074,8 +9077,8 @@
       <c r="M118" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N118" s="22">
-        <v>45390</v>
+      <c r="N118" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9085,7 +9088,7 @@
       <c r="B119" s="4">
         <v>77698560</v>
       </c>
-      <c r="C119" s="28" t="s">
+      <c r="C119" s="27" t="s">
         <v>393</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -9118,8 +9121,8 @@
       <c r="M119" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N119" s="22">
-        <v>45390</v>
+      <c r="N119" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9129,7 +9132,7 @@
       <c r="B120" s="4">
         <v>61133509</v>
       </c>
-      <c r="C120" s="28" t="s">
+      <c r="C120" s="27" t="s">
         <v>394</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -9162,8 +9165,8 @@
       <c r="M120" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N120" s="22">
-        <v>45024</v>
+      <c r="N120" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9173,7 +9176,7 @@
       <c r="B121" s="4">
         <v>60855272</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="26" t="s">
         <v>395</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -9206,8 +9209,8 @@
       <c r="M121" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N121" s="22">
-        <v>45024</v>
+      <c r="N121" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9217,7 +9220,7 @@
       <c r="B122" s="4">
         <v>72720844</v>
       </c>
-      <c r="C122" s="28" t="s">
+      <c r="C122" s="27" t="s">
         <v>396</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -9250,8 +9253,8 @@
       <c r="M122" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N122" s="22">
-        <v>44659</v>
+      <c r="N122" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,7 +9264,7 @@
       <c r="B123" s="4">
         <v>74624805</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="27" t="s">
         <v>397</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -9294,8 +9297,8 @@
       <c r="M123" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N123" s="22">
-        <v>44659</v>
+      <c r="N123" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9305,7 +9308,7 @@
       <c r="B124" s="4">
         <v>60996693</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="C124" s="27" t="s">
         <v>398</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -9338,8 +9341,8 @@
       <c r="M124" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N124" s="22">
-        <v>45755</v>
+      <c r="N124" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9349,7 +9352,7 @@
       <c r="B125" s="4">
         <v>76233162</v>
       </c>
-      <c r="C125" s="28" t="s">
+      <c r="C125" s="27" t="s">
         <v>399</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -9382,8 +9385,8 @@
       <c r="M125" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N125" s="22">
-        <v>44659</v>
+      <c r="N125" s="30">
+        <v>2024</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9393,7 +9396,7 @@
       <c r="B126" s="4">
         <v>72772962</v>
       </c>
-      <c r="C126" s="27" t="s">
+      <c r="C126" s="26" t="s">
         <v>400</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -9426,8 +9429,8 @@
       <c r="M126" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N126" s="22">
-        <v>45390</v>
+      <c r="N126" s="29">
+        <v>2024</v>
       </c>
     </row>
     <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9446,7 +9449,7 @@
       <c r="E127" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F127" s="23" t="s">
+      <c r="F127" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G127" s="12" t="s">
@@ -9470,8 +9473,8 @@
       <c r="M127" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N127" s="22">
-        <v>45024</v>
+      <c r="N127" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9490,7 +9493,7 @@
       <c r="E128" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="F128" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G128" s="12" t="s">
@@ -9514,8 +9517,8 @@
       <c r="M128" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N128" s="22">
-        <v>45390</v>
+      <c r="N128" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9534,7 +9537,7 @@
       <c r="E129" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F129" s="23" t="s">
+      <c r="F129" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G129" s="12" t="s">
@@ -9558,8 +9561,8 @@
       <c r="M129" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N129" s="22">
-        <v>45024</v>
+      <c r="N129" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9578,7 +9581,7 @@
       <c r="E130" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F130" s="23" t="s">
+      <c r="F130" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G130" s="12" t="s">
@@ -9602,8 +9605,8 @@
       <c r="M130" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N130" s="22">
-        <v>45390</v>
+      <c r="N130" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9622,7 +9625,7 @@
       <c r="E131" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F131" s="23" t="s">
+      <c r="F131" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G131" s="12" t="s">
@@ -9646,8 +9649,8 @@
       <c r="M131" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N131" s="22">
-        <v>45390</v>
+      <c r="N131" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9666,7 +9669,7 @@
       <c r="E132" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F132" s="23" t="s">
+      <c r="F132" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G132" s="12" t="s">
@@ -9690,8 +9693,8 @@
       <c r="M132" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N132" s="22">
-        <v>45390</v>
+      <c r="N132" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9710,7 +9713,7 @@
       <c r="E133" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F133" s="23" t="s">
+      <c r="F133" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G133" s="12" t="s">
@@ -9734,8 +9737,8 @@
       <c r="M133" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N133" s="22">
-        <v>45390</v>
+      <c r="N133" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9754,7 +9757,7 @@
       <c r="E134" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="F134" s="23" t="s">
+      <c r="F134" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G134" s="12" t="s">
@@ -9778,8 +9781,8 @@
       <c r="M134" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N134" s="22">
-        <v>45390</v>
+      <c r="N134" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9798,7 +9801,7 @@
       <c r="E135" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F135" s="23" t="s">
+      <c r="F135" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G135" s="12" t="s">
@@ -9822,8 +9825,8 @@
       <c r="M135" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N135" s="22">
-        <v>44659</v>
+      <c r="N135" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9842,7 +9845,7 @@
       <c r="E136" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F136" s="23" t="s">
+      <c r="F136" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G136" s="12" t="s">
@@ -9866,8 +9869,8 @@
       <c r="M136" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N136" s="22">
-        <v>45755</v>
+      <c r="N136" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9886,7 +9889,7 @@
       <c r="E137" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F137" s="23" t="s">
+      <c r="F137" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G137" s="12" t="s">
@@ -9910,8 +9913,8 @@
       <c r="M137" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N137" s="22">
-        <v>45024</v>
+      <c r="N137" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9930,7 +9933,7 @@
       <c r="E138" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G138" s="12" t="s">
@@ -9954,8 +9957,8 @@
       <c r="M138" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N138" s="22">
-        <v>45024</v>
+      <c r="N138" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9974,7 +9977,7 @@
       <c r="E139" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F139" s="23" t="s">
+      <c r="F139" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G139" s="12" t="s">
@@ -9998,8 +10001,8 @@
       <c r="M139" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N139" s="22">
-        <v>45755</v>
+      <c r="N139" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10018,7 +10021,7 @@
       <c r="E140" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F140" s="23" t="s">
+      <c r="F140" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G140" s="12" t="s">
@@ -10042,8 +10045,8 @@
       <c r="M140" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N140" s="22">
-        <v>45024</v>
+      <c r="N140" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10062,7 +10065,7 @@
       <c r="E141" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F141" s="23" t="s">
+      <c r="F141" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G141" s="12" t="s">
@@ -10086,8 +10089,8 @@
       <c r="M141" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N141" s="22">
-        <v>45024</v>
+      <c r="N141" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10106,7 +10109,7 @@
       <c r="E142" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F142" s="23" t="s">
+      <c r="F142" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G142" s="12" t="s">
@@ -10130,8 +10133,8 @@
       <c r="M142" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N142" s="22">
-        <v>45390</v>
+      <c r="N142" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10150,7 +10153,7 @@
       <c r="E143" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F143" s="23" t="s">
+      <c r="F143" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G143" s="12" t="s">
@@ -10174,8 +10177,8 @@
       <c r="M143" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N143" s="22">
-        <v>45755</v>
+      <c r="N143" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10194,7 +10197,7 @@
       <c r="E144" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F144" s="23" t="s">
+      <c r="F144" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G144" s="12" t="s">
@@ -10218,8 +10221,8 @@
       <c r="M144" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N144" s="22">
-        <v>45755</v>
+      <c r="N144" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10238,7 +10241,7 @@
       <c r="E145" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F145" s="23" t="s">
+      <c r="F145" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G145" s="12" t="s">
@@ -10262,8 +10265,8 @@
       <c r="M145" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N145" s="22">
-        <v>45024</v>
+      <c r="N145" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10282,7 +10285,7 @@
       <c r="E146" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F146" s="23" t="s">
+      <c r="F146" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G146" s="12" t="s">
@@ -10306,8 +10309,8 @@
       <c r="M146" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N146" s="22">
-        <v>45755</v>
+      <c r="N146" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10326,7 +10329,7 @@
       <c r="E147" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="F147" s="23" t="s">
+      <c r="F147" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G147" s="12" t="s">
@@ -10350,8 +10353,8 @@
       <c r="M147" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N147" s="22">
-        <v>45755</v>
+      <c r="N147" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10370,7 +10373,7 @@
       <c r="E148" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F148" s="23" t="s">
+      <c r="F148" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G148" s="12" t="s">
@@ -10394,8 +10397,8 @@
       <c r="M148" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N148" s="22">
-        <v>45755</v>
+      <c r="N148" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10414,7 +10417,7 @@
       <c r="E149" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F149" s="23" t="s">
+      <c r="F149" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G149" s="12" t="s">
@@ -10438,8 +10441,8 @@
       <c r="M149" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N149" s="22">
-        <v>45390</v>
+      <c r="N149" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10458,7 +10461,7 @@
       <c r="E150" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F150" s="23" t="s">
+      <c r="F150" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G150" s="12" t="s">
@@ -10482,8 +10485,8 @@
       <c r="M150" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N150" s="22">
-        <v>44659</v>
+      <c r="N150" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10502,7 +10505,7 @@
       <c r="E151" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F151" s="23" t="s">
+      <c r="F151" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G151" s="12" t="s">
@@ -10526,8 +10529,8 @@
       <c r="M151" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N151" s="22">
-        <v>45390</v>
+      <c r="N151" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10546,7 +10549,7 @@
       <c r="E152" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F152" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G152" s="12" t="s">
@@ -10570,8 +10573,8 @@
       <c r="M152" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N152" s="22">
-        <v>45755</v>
+      <c r="N152" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10590,7 +10593,7 @@
       <c r="E153" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F153" s="23" t="s">
+      <c r="F153" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G153" s="12" t="s">
@@ -10614,8 +10617,8 @@
       <c r="M153" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N153" s="22">
-        <v>45755</v>
+      <c r="N153" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10634,7 +10637,7 @@
       <c r="E154" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F154" s="23" t="s">
+      <c r="F154" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G154" s="12" t="s">
@@ -10658,8 +10661,8 @@
       <c r="M154" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N154" s="22">
-        <v>45755</v>
+      <c r="N154" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10678,7 +10681,7 @@
       <c r="E155" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F155" s="23" t="s">
+      <c r="F155" s="22" t="s">
         <v>901</v>
       </c>
       <c r="G155" s="12" t="s">
@@ -10702,9 +10705,18 @@
       <c r="M155" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="N155" s="22">
-        <v>45755</v>
-      </c>
+      <c r="N155" s="12" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N156" s="11"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N157" s="11"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N158" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seeders/estudents.xlsx
+++ b/seeders/estudents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Archivos_Nick\Python\notas_jhon\backendSistNotas\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04AEC5-E446-43D9-971F-5BFB780123C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD6413-C761-43F4-AD8E-8A1934C9B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BA174506-A699-4D84-A640-D2CA387D3983}"/>
   </bookViews>
@@ -2739,18 +2739,12 @@
     <t>ciclo</t>
   </si>
   <si>
-    <t>III</t>
-  </si>
-  <si>
     <t>VI</t>
   </si>
   <si>
     <t>+51 933609735</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
     <t>pedroantoni355@gmail.com</t>
   </si>
   <si>
@@ -2839,6 +2833,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -3905,8 +3905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A84BA07-B459-4BBE-9764-098660BB8231}">
   <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3994,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>441</v>
@@ -4038,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>444</v>
@@ -4082,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>447</v>
@@ -4126,7 +4126,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>450</v>
@@ -4170,7 +4170,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>453</v>
@@ -4205,7 +4205,7 @@
         <v>61265730</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -4214,7 +4214,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>456</v>
@@ -4249,7 +4249,7 @@
         <v>61345514</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>22</v>
@@ -4258,7 +4258,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>459</v>
@@ -4302,7 +4302,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>462</v>
@@ -4346,7 +4346,7 @@
         <v>28</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>465</v>
@@ -4381,7 +4381,7 @@
         <v>61133552</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -4390,7 +4390,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>468</v>
@@ -4434,7 +4434,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>471</v>
@@ -4478,7 +4478,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>474</v>
@@ -4522,7 +4522,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>477</v>
@@ -4557,7 +4557,7 @@
         <v>76029422</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
@@ -4566,7 +4566,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>480</v>
@@ -4610,7 +4610,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>483</v>
@@ -4654,7 +4654,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>486</v>
@@ -4698,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>489</v>
@@ -4742,7 +4742,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>492</v>
@@ -4786,7 +4786,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>495</v>
@@ -4830,7 +4830,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>498</v>
@@ -4874,7 +4874,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>501</v>
@@ -4918,7 +4918,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>504</v>
@@ -4962,7 +4962,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>507</v>
@@ -5006,7 +5006,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>510</v>
@@ -5050,7 +5050,7 @@
         <v>62</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G27" s="12" t="s">
         <v>513</v>
@@ -5094,7 +5094,7 @@
         <v>64</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G28" s="12" t="s">
         <v>516</v>
@@ -5138,7 +5138,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>519</v>
@@ -5182,7 +5182,7 @@
         <v>68</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>522</v>
@@ -5226,7 +5226,7 @@
         <v>70</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>525</v>
@@ -5270,7 +5270,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>528</v>
@@ -5314,7 +5314,7 @@
         <v>74</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>531</v>
@@ -5358,7 +5358,7 @@
         <v>76</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>534</v>
@@ -5402,7 +5402,7 @@
         <v>78</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>537</v>
@@ -5446,7 +5446,7 @@
         <v>80</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>540</v>
@@ -5490,7 +5490,7 @@
         <v>82</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>543</v>
@@ -5534,7 +5534,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>546</v>
@@ -5578,7 +5578,7 @@
         <v>86</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>549</v>
@@ -5622,7 +5622,7 @@
         <v>88</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>552</v>
@@ -5666,7 +5666,7 @@
         <v>90</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>555</v>
@@ -5710,7 +5710,7 @@
         <v>92</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>558</v>
@@ -5754,7 +5754,7 @@
         <v>94</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>561</v>
@@ -5798,7 +5798,7 @@
         <v>96</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>564</v>
@@ -5842,7 +5842,7 @@
         <v>98</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>567</v>
@@ -5886,7 +5886,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>570</v>
@@ -5930,7 +5930,7 @@
         <v>102</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>573</v>
@@ -5974,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>576</v>
@@ -6018,7 +6018,7 @@
         <v>106</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>579</v>
@@ -6062,7 +6062,7 @@
         <v>108</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G50" s="12" t="s">
         <v>582</v>
@@ -6097,7 +6097,7 @@
         <v>81054253</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>109</v>
@@ -6106,7 +6106,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>585</v>
@@ -6150,7 +6150,7 @@
         <v>112</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G52" s="12" t="s">
         <v>588</v>
@@ -6194,7 +6194,7 @@
         <v>114</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G53" s="12" t="s">
         <v>591</v>
@@ -6229,7 +6229,7 @@
         <v>63031049</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>115</v>
@@ -6238,7 +6238,7 @@
         <v>116</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G54" s="12" t="s">
         <v>594</v>
@@ -6273,7 +6273,7 @@
         <v>60375503</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>117</v>
@@ -6282,7 +6282,7 @@
         <v>118</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G55" s="12" t="s">
         <v>597</v>
@@ -6326,7 +6326,7 @@
         <v>120</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>600</v>
@@ -6361,7 +6361,7 @@
         <v>61266688</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>121</v>
@@ -6370,7 +6370,7 @@
         <v>122</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G57" s="12" t="s">
         <v>603</v>
@@ -6405,7 +6405,7 @@
         <v>60232852</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>123</v>
@@ -6414,7 +6414,7 @@
         <v>124</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G58" s="12" t="s">
         <v>606</v>
@@ -6458,7 +6458,7 @@
         <v>126</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>609</v>
@@ -6502,7 +6502,7 @@
         <v>128</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>612</v>
@@ -6537,7 +6537,7 @@
         <v>61343470</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>129</v>
@@ -6546,7 +6546,7 @@
         <v>130</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>615</v>
@@ -6581,7 +6581,7 @@
         <v>61201873</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>131</v>
@@ -6590,7 +6590,7 @@
         <v>132</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>618</v>
@@ -6634,7 +6634,7 @@
         <v>134</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>621</v>
@@ -6669,7 +6669,7 @@
         <v>61040480</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>135</v>
@@ -6678,7 +6678,7 @@
         <v>136</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>624</v>
@@ -6722,7 +6722,7 @@
         <v>138</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>627</v>
@@ -6766,7 +6766,7 @@
         <v>140</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>630</v>
@@ -6801,7 +6801,7 @@
         <v>61077288</v>
       </c>
       <c r="C67" s="28" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>141</v>
@@ -6810,7 +6810,7 @@
         <v>142</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>633</v>
@@ -6845,7 +6845,7 @@
         <v>75812287</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>143</v>
@@ -6854,7 +6854,7 @@
         <v>144</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>636</v>
@@ -6898,7 +6898,7 @@
         <v>146</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>639</v>
@@ -6933,7 +6933,7 @@
         <v>47706884</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>147</v>
@@ -6942,7 +6942,7 @@
         <v>148</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>642</v>
@@ -6986,7 +6986,7 @@
         <v>150</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>645</v>
@@ -7030,7 +7030,7 @@
         <v>152</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>648</v>
@@ -7065,7 +7065,7 @@
         <v>60738068</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>153</v>
@@ -7074,7 +7074,7 @@
         <v>154</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>651</v>
@@ -7109,7 +7109,7 @@
         <v>60012311</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>155</v>
@@ -7118,7 +7118,7 @@
         <v>156</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>654</v>
@@ -7162,7 +7162,7 @@
         <v>158</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>657</v>
@@ -7206,7 +7206,7 @@
         <v>160</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>660</v>
@@ -7250,7 +7250,7 @@
         <v>162</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>663</v>
@@ -7285,7 +7285,7 @@
         <v>60885476</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>163</v>
@@ -7294,7 +7294,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>666</v>
@@ -7338,7 +7338,7 @@
         <v>166</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>669</v>
@@ -7373,7 +7373,7 @@
         <v>60114607</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>167</v>
@@ -7382,7 +7382,7 @@
         <v>168</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G80" s="12" t="s">
         <v>672</v>
@@ -7417,7 +7417,7 @@
         <v>61242952</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>169</v>
@@ -7426,7 +7426,7 @@
         <v>170</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G81" s="12" t="s">
         <v>675</v>
@@ -7470,7 +7470,7 @@
         <v>172</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>678</v>
@@ -7514,7 +7514,7 @@
         <v>173</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G83" s="12" t="s">
         <v>681</v>
@@ -7558,7 +7558,7 @@
         <v>175</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>684</v>
@@ -7602,7 +7602,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G85" s="12" t="s">
         <v>687</v>
@@ -7646,7 +7646,7 @@
         <v>179</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>690</v>
@@ -7690,7 +7690,7 @@
         <v>181</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G87" s="12" t="s">
         <v>693</v>
@@ -7725,7 +7725,7 @@
         <v>63693526</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>182</v>
@@ -7734,7 +7734,7 @@
         <v>183</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>696</v>
@@ -7769,7 +7769,7 @@
         <v>63283446</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>184</v>
@@ -7778,7 +7778,7 @@
         <v>185</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>699</v>
@@ -7822,7 +7822,7 @@
         <v>187</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>702</v>
@@ -7857,7 +7857,7 @@
         <v>61202096</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>188</v>
@@ -7866,7 +7866,7 @@
         <v>189</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>705</v>
@@ -7910,7 +7910,7 @@
         <v>191</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>708</v>
@@ -7954,7 +7954,7 @@
         <v>193</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G93" s="12" t="s">
         <v>711</v>
@@ -7998,7 +7998,7 @@
         <v>195</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>714</v>
@@ -8042,7 +8042,7 @@
         <v>197</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>717</v>
@@ -8086,7 +8086,7 @@
         <v>199</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>720</v>
@@ -8121,7 +8121,7 @@
         <v>61005932</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>200</v>
@@ -8130,7 +8130,7 @@
         <v>201</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>723</v>
@@ -8165,7 +8165,7 @@
         <v>77120167</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>202</v>
@@ -8174,7 +8174,7 @@
         <v>203</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>726</v>
@@ -8209,7 +8209,7 @@
         <v>76105004</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>204</v>
@@ -8218,7 +8218,7 @@
         <v>205</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>729</v>
@@ -8262,7 +8262,7 @@
         <v>207</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>732</v>
@@ -8306,7 +8306,7 @@
         <v>209</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>735</v>
@@ -8350,7 +8350,7 @@
         <v>211</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>738</v>
@@ -8394,7 +8394,7 @@
         <v>212</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>741</v>
@@ -8438,7 +8438,7 @@
         <v>214</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>744</v>
@@ -8482,7 +8482,7 @@
         <v>216</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>747</v>
@@ -8517,7 +8517,7 @@
         <v>73897884</v>
       </c>
       <c r="C106" s="28" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>217</v>
@@ -8526,7 +8526,7 @@
         <v>218</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>750</v>
@@ -8570,7 +8570,7 @@
         <v>220</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G107" s="12" t="s">
         <v>753</v>
@@ -8605,7 +8605,7 @@
         <v>76803746</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>221</v>
@@ -8614,7 +8614,7 @@
         <v>222</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>756</v>
@@ -8649,7 +8649,7 @@
         <v>75990313</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>223</v>
@@ -8658,7 +8658,7 @@
         <v>224</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>759</v>
@@ -8702,7 +8702,7 @@
         <v>226</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G110" s="12" t="s">
         <v>762</v>
@@ -8746,7 +8746,7 @@
         <v>228</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G111" s="12" t="s">
         <v>765</v>
@@ -8790,7 +8790,7 @@
         <v>230</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G112" s="12" t="s">
         <v>768</v>
@@ -8834,7 +8834,7 @@
         <v>232</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>771</v>
@@ -8878,7 +8878,7 @@
         <v>234</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>774</v>
@@ -8922,7 +8922,7 @@
         <v>236</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>777</v>
@@ -8966,7 +8966,7 @@
         <v>238</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>780</v>
@@ -9010,7 +9010,7 @@
         <v>240</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G117" s="12" t="s">
         <v>783</v>
@@ -9054,7 +9054,7 @@
         <v>241</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>786</v>
@@ -9098,7 +9098,7 @@
         <v>243</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>789</v>
@@ -9142,7 +9142,7 @@
         <v>245</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>792</v>
@@ -9186,7 +9186,7 @@
         <v>247</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>795</v>
@@ -9230,7 +9230,7 @@
         <v>249</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>798</v>
@@ -9274,7 +9274,7 @@
         <v>251</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>801</v>
@@ -9318,7 +9318,7 @@
         <v>253</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>804</v>
@@ -9362,7 +9362,7 @@
         <v>255</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>807</v>
@@ -9406,7 +9406,7 @@
         <v>257</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>810</v>
@@ -9450,7 +9450,7 @@
         <v>259</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>813</v>
@@ -9474,7 +9474,7 @@
         <v>438</v>
       </c>
       <c r="N127" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9494,7 +9494,7 @@
         <v>261</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>816</v>
@@ -9518,7 +9518,7 @@
         <v>438</v>
       </c>
       <c r="N128" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
         <v>263</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>819</v>
@@ -9562,7 +9562,7 @@
         <v>438</v>
       </c>
       <c r="N129" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9582,7 +9582,7 @@
         <v>265</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>822</v>
@@ -9606,7 +9606,7 @@
         <v>438</v>
       </c>
       <c r="N130" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9626,7 +9626,7 @@
         <v>267</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>825</v>
@@ -9650,7 +9650,7 @@
         <v>438</v>
       </c>
       <c r="N131" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="132" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>269</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>828</v>
@@ -9694,7 +9694,7 @@
         <v>438</v>
       </c>
       <c r="N132" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
         <v>271</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>831</v>
@@ -9738,7 +9738,7 @@
         <v>438</v>
       </c>
       <c r="N133" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
         <v>273</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>834</v>
@@ -9782,7 +9782,7 @@
         <v>438</v>
       </c>
       <c r="N134" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="135" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9802,7 +9802,7 @@
         <v>275</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>837</v>
@@ -9826,7 +9826,7 @@
         <v>438</v>
       </c>
       <c r="N135" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="136" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9846,7 +9846,7 @@
         <v>277</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>840</v>
@@ -9870,7 +9870,7 @@
         <v>438</v>
       </c>
       <c r="N136" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="137" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9890,7 +9890,7 @@
         <v>279</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>843</v>
@@ -9914,7 +9914,7 @@
         <v>438</v>
       </c>
       <c r="N137" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9934,10 +9934,10 @@
         <v>281</v>
       </c>
       <c r="F138" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="G138" s="12" t="s">
         <v>901</v>
-      </c>
-      <c r="G138" s="12" t="s">
-        <v>902</v>
       </c>
       <c r="H138" s="9">
         <v>34952</v>
@@ -9958,7 +9958,7 @@
         <v>438</v>
       </c>
       <c r="N138" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9978,7 +9978,7 @@
         <v>283</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>849</v>
@@ -10002,7 +10002,7 @@
         <v>438</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
         <v>285</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>852</v>
@@ -10046,7 +10046,7 @@
         <v>438</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10066,7 +10066,7 @@
         <v>287</v>
       </c>
       <c r="F141" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>855</v>
@@ -10090,7 +10090,7 @@
         <v>438</v>
       </c>
       <c r="N141" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10110,7 +10110,7 @@
         <v>289</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>858</v>
@@ -10134,7 +10134,7 @@
         <v>438</v>
       </c>
       <c r="N142" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
         <v>291</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>861</v>
@@ -10178,7 +10178,7 @@
         <v>438</v>
       </c>
       <c r="N143" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10198,7 +10198,7 @@
         <v>293</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>864</v>
@@ -10222,7 +10222,7 @@
         <v>438</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10242,7 +10242,7 @@
         <v>295</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>867</v>
@@ -10266,7 +10266,7 @@
         <v>438</v>
       </c>
       <c r="N145" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10286,7 +10286,7 @@
         <v>297</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>870</v>
@@ -10310,7 +10310,7 @@
         <v>438</v>
       </c>
       <c r="N146" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
         <v>299</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>873</v>
@@ -10354,7 +10354,7 @@
         <v>438</v>
       </c>
       <c r="N147" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10374,7 +10374,7 @@
         <v>301</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>876</v>
@@ -10398,7 +10398,7 @@
         <v>438</v>
       </c>
       <c r="N148" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>303</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>879</v>
@@ -10442,7 +10442,7 @@
         <v>438</v>
       </c>
       <c r="N149" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10462,7 +10462,7 @@
         <v>305</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>882</v>
@@ -10486,7 +10486,7 @@
         <v>438</v>
       </c>
       <c r="N150" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10506,7 +10506,7 @@
         <v>307</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>885</v>
@@ -10530,7 +10530,7 @@
         <v>438</v>
       </c>
       <c r="N151" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
         <v>309</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>888</v>
@@ -10574,7 +10574,7 @@
         <v>438</v>
       </c>
       <c r="N152" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
         <v>311</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>891</v>
@@ -10618,7 +10618,7 @@
         <v>438</v>
       </c>
       <c r="N153" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10638,7 +10638,7 @@
         <v>313</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>894</v>
@@ -10662,7 +10662,7 @@
         <v>438</v>
       </c>
       <c r="N154" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>263</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>897</v>
@@ -10706,7 +10706,7 @@
         <v>438</v>
       </c>
       <c r="N155" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
